--- a/Carbon_intensities.xlsx
+++ b/Carbon_intensities.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="11" r:id="rId1"/>
@@ -1178,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -3606,7 +3606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A66" sqref="A66:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12249,8 +12249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -12490,14 +12490,14 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C17" s="21" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D17" s="21" t="e">
-        <v>#NUM!</v>
+      <c r="B17" s="21">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">

--- a/Carbon_intensities.xlsx
+++ b/Carbon_intensities.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misl\OwnCloud\Distributional Paper\Github_Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misl\OwnCloud\Distributional Paper\Github_Output\Github_Repo\DIDA_SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="145">
   <si>
     <t>GTAP 10</t>
   </si>
@@ -463,9 +463,6 @@
   </si>
   <si>
     <t>International Carbon Intensity [tCO2/USD]</t>
-  </si>
-  <si>
-    <t>National Carbon Intensity [tCO2/100USD]</t>
   </si>
   <si>
     <t>National Carbon Intensity [tCO2/USD]</t>
@@ -1178,7 +1175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -1191,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -1215,7 +1212,7 @@
         <v>143</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2124,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -2145,10 +2142,10 @@
         <v>142</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -7584,8 +7581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -7608,7 +7605,7 @@
         <v>143</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -8517,8 +8514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -8541,7 +8538,7 @@
         <v>143</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -9450,8 +9447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -9474,7 +9471,7 @@
         <v>143</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -10383,8 +10380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -10407,7 +10404,7 @@
         <v>143</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -11316,8 +11313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -11340,7 +11337,7 @@
         <v>143</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -12249,8 +12246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -12273,7 +12270,7 @@
         <v>143</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
